--- a/我的创作/基金/基金.xlsx
+++ b/我的创作/基金/基金.xlsx
@@ -950,7 +950,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
